--- a/1.TestCase[SW]/TestCase[ST16_CGOET].xlsx
+++ b/1.TestCase[SW]/TestCase[ST16_CGOET].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="29040" windowHeight="16440" tabRatio="447" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="29040" windowHeight="16440" tabRatio="447" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1.Result Status" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,6 @@
     <sheet name="6.Issue Report" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="147">
   <si>
     <t>Passed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,16 +215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.CGOET_锁定跨度</t>
-    <rPh sb="8" eb="9">
-      <t>suo ding</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>kua du</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.CGOET_预览模式</t>
     <rPh sb="8" eb="9">
       <t>yu lan</t>
@@ -306,16 +295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.CGOET_预览拍摄</t>
-    <rPh sb="8" eb="9">
-      <t>yu lan</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>pai s</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CGOET_预览拍摄_01</t>
     <rPh sb="6" eb="7">
       <t>yu lan pai sghe</t>
@@ -560,16 +539,6 @@
     </rPh>
     <rPh sb="97" eb="98">
       <t>tu biao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.CGOET_设置拍摄</t>
-    <rPh sb="8" eb="9">
-      <t>she zhi</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>pai s</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3598,6 +3567,281 @@
     <rPh sb="39" eb="40">
       <t>dangkai guanguan bishi houhong waipai shejiangbu huizi dongjiao zhunpai shewen du zhi</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.CGOET_锁定跨度</t>
+    <rPh sb="8" eb="9">
+      <t>suo ding</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>kua du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.CGOET_预览拍摄</t>
+    <rPh sb="8" eb="9">
+      <t>yu lan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>pai s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.CGOET_设置拍摄</t>
+    <rPh sb="8" eb="9">
+      <t>she zhi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>pai s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CGOET_预览拍摄_03</t>
+    <rPh sb="6" eb="7">
+      <t>yu lan pai sghe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.ST16遥控器一台(含标配电池)；  2.Typhoon H飞机一台(含标配电池及CGOET云台)；                   3.ST16遥控器及CGOET云台Firmware刷至待测版本；                 4.ST16遥控器与CGOET云台Bind成功；                          </t>
+    <rPh sb="12" eb="13">
+      <t>han</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>biao pei</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>dian chi</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>han</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>biao pei</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>dian chi</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>yun taiyu lanpai s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.在“拍摄预览”界面，分别执行拍照、录像操作；                                        2.重复步骤1各100次；                       3.检查云台SD Card中图片与视频授时是否与ST16遥控器一致；</t>
+    <rPh sb="2" eb="3">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pai she</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yu lan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jie mian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhen dui</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>tu pian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>lu xiang</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>fen bie</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>jin xing</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>yu lan</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>kuai jin</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>kuai tui</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>pai she</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>zhao p</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>pai she</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>lu xaing</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>cao zuo</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>jian cha</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>cao zuo</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>chuang k</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>zhuang tai</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>xin xi</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>bian hau</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>fen bie</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>zhi xing</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>duo c</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>zhao p</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>pai s g</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>shi p</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>lu xiang</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>cao zuo</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>jian cha</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>zhao p</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>shi p</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>yu lan</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>chuang k</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>de</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>xian shi</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>zhuang tai</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>xin xi</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>bian hau</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>zhao p</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>pai s</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>shi p</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>lu xiang</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>jie s</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>fen bie</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t>yao k qi</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>yun tai</t>
+    </rPh>
+    <rPh sb="161" eb="162">
+      <t>ka</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>zhao p</t>
+    </rPh>
+    <rPh sb="165" eb="166">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="166" eb="167">
+      <t>shi pcun cxin xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aug,30th,2016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云台生成图片与视频与遥控器一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加云台授时验证机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.将云台SD Card插入读卡器进行PC预览，检查生成的图片(JPEG、JPG、TIF格式)、视频（MP4格式）均与ST16遥控器执行时间一致。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3738,7 +3982,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -3899,6 +4143,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3927,7 +4180,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4015,6 +4268,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4036,11 +4295,20 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4057,20 +4325,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -4432,13 +4694,13 @@
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="9" spans="8:12">
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
     </row>
     <row r="10" spans="8:12" ht="15">
       <c r="H10" s="1" t="s">
@@ -4478,44 +4740,44 @@
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="3" spans="1:17">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="34"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="35"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4532,7 +4794,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -4548,7 +4810,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>6</v>
@@ -4561,11 +4823,11 @@
       <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4582,7 +4844,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -4621,13 +4883,13 @@
         <v>11</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>15</v>
@@ -4637,11 +4899,21 @@
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="9"/>
+      <c r="B3" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="13">
@@ -4712,10 +4984,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5"/>
@@ -4734,10 +5006,10 @@
       <c r="A1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="46"/>
+      <c r="C1" s="41"/>
       <c r="D1" s="16" t="s">
         <v>23</v>
       </c>
@@ -4770,21 +5042,21 @@
       <c r="A2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="47"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>32</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
@@ -4796,12 +5068,12 @@
       <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>32</v>
@@ -4810,7 +5082,7 @@
         <v>33</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
@@ -4820,23 +5092,23 @@
     </row>
     <row r="4" spans="1:12" ht="135">
       <c r="A4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="43"/>
+        <v>38</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="39"/>
       <c r="D4" s="22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
@@ -4846,23 +5118,23 @@
     </row>
     <row r="5" spans="1:12" ht="121.5">
       <c r="A5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="43"/>
+        <v>136</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="39"/>
       <c r="D5" s="22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -4871,24 +5143,24 @@
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="121.5">
-      <c r="A6" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="43"/>
+      <c r="A6" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="39"/>
       <c r="D6" s="22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -4897,22 +5169,22 @@
       <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" ht="148.5">
-      <c r="A7" s="44"/>
-      <c r="B7" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="43"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="39"/>
       <c r="D7" s="22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -4920,49 +5192,49 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
     </row>
-    <row r="8" spans="1:12" ht="121.5">
-      <c r="A8" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="18" t="s">
+    <row r="8" spans="1:12" ht="94.5">
+      <c r="A8" s="49"/>
+      <c r="B8" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
+      <c r="F8" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:12" ht="148.5">
-      <c r="A9" s="39"/>
-      <c r="B9" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="42"/>
+    <row r="9" spans="1:12" ht="121.5">
+      <c r="A9" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="47"/>
       <c r="D9" s="22" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>85</v>
+      <c r="F9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -4971,70 +5243,70 @@
       <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" ht="148.5">
-      <c r="A10" s="39"/>
-      <c r="B10" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="42"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="47"/>
       <c r="D10" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
+        <v>82</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
     </row>
-    <row r="11" spans="1:12" ht="121.5">
-      <c r="A11" s="39"/>
-      <c r="B11" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="42"/>
+    <row r="11" spans="1:12" ht="148.5">
+      <c r="A11" s="44"/>
+      <c r="B11" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="47"/>
       <c r="D11" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
+      <c r="F11" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12" spans="1:12" ht="121.5">
-      <c r="A12" s="39"/>
-      <c r="B12" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="42"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="47"/>
       <c r="D12" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -5043,22 +5315,22 @@
       <c r="L12" s="18"/>
     </row>
     <row r="13" spans="1:12" ht="121.5">
-      <c r="A13" s="39"/>
-      <c r="B13" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="42"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="47"/>
       <c r="D13" s="22" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -5067,22 +5339,22 @@
       <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12" ht="121.5">
-      <c r="A14" s="39"/>
-      <c r="B14" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="42"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="47"/>
       <c r="D14" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>138</v>
+      <c r="F14" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -5091,22 +5363,22 @@
       <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:12" ht="121.5">
-      <c r="A15" s="39"/>
-      <c r="B15" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="42"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="47"/>
       <c r="D15" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>61</v>
+      <c r="F15" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -5114,23 +5386,23 @@
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
     </row>
-    <row r="16" spans="1:12" ht="148.5">
-      <c r="A16" s="39"/>
-      <c r="B16" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="42"/>
+    <row r="16" spans="1:12" ht="121.5">
+      <c r="A16" s="44"/>
+      <c r="B16" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="47"/>
       <c r="D16" s="22" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>94</v>
+      <c r="F16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -5138,23 +5410,23 @@
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
     </row>
-    <row r="17" spans="1:12" ht="121.5">
-      <c r="A17" s="39"/>
-      <c r="B17" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="42"/>
+    <row r="17" spans="1:12" ht="148.5">
+      <c r="A17" s="44"/>
+      <c r="B17" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="47"/>
       <c r="D17" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>66</v>
+      <c r="F17" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -5163,22 +5435,22 @@
       <c r="L17" s="18"/>
     </row>
     <row r="18" spans="1:12" ht="121.5">
-      <c r="A18" s="39"/>
-      <c r="B18" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="42"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="47"/>
       <c r="D18" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>32</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
@@ -5187,46 +5459,46 @@
       <c r="L18" s="18"/>
     </row>
     <row r="19" spans="1:12" ht="121.5">
-      <c r="A19" s="39"/>
-      <c r="B19" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="43"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="47"/>
       <c r="D19" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
+      <c r="F19" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
     </row>
     <row r="20" spans="1:12" ht="121.5">
-      <c r="A20" s="40"/>
-      <c r="B20" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="42"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="39"/>
       <c r="D20" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="22" t="s">
-        <v>104</v>
+      <c r="F20" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -5234,16 +5506,55 @@
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
     </row>
-    <row r="24" spans="1:12">
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
+    <row r="21" spans="1:12" ht="121.5">
+      <c r="A21" s="45"/>
+      <c r="B21" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="47"/>
+      <c r="D21" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A6:A7"/>
+  <mergeCells count="23">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B1:C1"/>
@@ -5251,20 +5562,6 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5276,8 +5573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -5297,40 +5594,40 @@
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1">
       <c r="A1" s="23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="F1" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>115</v>
-      </c>
       <c r="J1" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>19</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>10</v>
@@ -5338,34 +5635,34 @@
     </row>
     <row r="2" spans="1:13" ht="70.5" customHeight="1">
       <c r="A2" s="27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>120</v>
-      </c>
       <c r="F2" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K2" s="25">
         <v>42578</v>
@@ -5374,39 +5671,39 @@
         <v>42587</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="64.5" customHeight="1">
       <c r="A3" s="27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>120</v>
-      </c>
       <c r="F3" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K3" s="25">
         <v>42578</v>
@@ -5415,39 +5712,39 @@
         <v>42587</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="60" customHeight="1">
       <c r="A4" s="27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G4" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="I4" s="24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K4" s="25">
         <v>42580</v>
@@ -5632,7 +5929,7 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
